--- a/biology/Médecine/Cinquième_métatarsien/Cinquième_métatarsien.xlsx
+++ b/biology/Médecine/Cinquième_métatarsien/Cinquième_métatarsien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cinqui%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Cinquième_métatarsien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cinquième métatarsien est un des cinq os long du métatarse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cinqui%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Cinquième_métatarsien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cinquième métatarsien est le deuxième plus petit des métatarsiens.
 Comme pour les quatre autres os métatarsiens, il peut être divisé en trois parties : la base, le corps et la tête.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cinqui%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Cinquième_métatarsien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cinqui%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Cinquième_métatarsien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,17 +589,54 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le cinquième métatarsien est palpable le long des bords externes des pieds.
-Fractures
-Les fractures du cinquième métatarsien sont fréquentes[1] et se distinguent par leur localisation :
-Une fracture de la diaphyse proximale est généralement une fracture de fatigue, fréquente chez les athlètes[2], [3].
-Une fracture de la métaphyse, qui, en raison d'un mauvais apport sanguin dans cette zone, ne guérit parfois pas et peut nécessiter une intervention chirurgicale[4].
-Une fracture la tubérosité (fracture du danseur) par avulsion[5], [6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cinquième métatarsien est palpable le long des bords externes des pieds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cinquième_métatarsien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cinqui%C3%A8me_m%C3%A9tatarsien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fractures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les fractures du cinquième métatarsien sont fréquentes et se distinguent par leur localisation :
+Une fracture de la diaphyse proximale est généralement une fracture de fatigue, fréquente chez les athlètes, .
+Une fracture de la métaphyse, qui, en raison d'un mauvais apport sanguin dans cette zone, ne guérit parfois pas et peut nécessiter une intervention chirurgicale.
+Une fracture la tubérosité (fracture du danseur) par avulsion, .
 Une radiologie peut montrer une fausse image de fracture dans certains cas :
-L'apophyse en tant que centre d'ossification secondaire de l'os, est normalement présente entre 10 et 16 ans[7].
-Présence d'un os accessoire présent chez 0,1 à 1 % de la population[8].</t>
+L'apophyse en tant que centre d'ossification secondaire de l'os, est normalement présente entre 10 et 16 ans.
+Présence d'un os accessoire présent chez 0,1 à 1 % de la population.</t>
         </is>
       </c>
     </row>
